--- a/biology/Botanique/Maurandella/Maurandella.xlsx
+++ b/biology/Botanique/Maurandella/Maurandella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Maurandella est un genre de végétaux de la famille des Scrophulariaceae selon la classification classique de Cronquist (1981)[1] et de la famille des Plantaginaceae selon la plus récente classification APG III (2009).
+Maurandella est un genre de végétaux de la famille des Scrophulariaceae selon la classification classique de Cronquist (1981) et de la famille des Plantaginaceae selon la plus récente classification APG III (2009).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                  (15 oct. 2012)[2], ITIS      (15 oct. 2012)[3] et NCBI  (15 oct. 2012)[4], ce genre ne contient qu'une seule espèce : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                  (15 oct. 2012), ITIS      (15 oct. 2012) et NCBI  (15 oct. 2012), ce genre ne contient qu'une seule espèce : 
 Maurandella antirrhiniflora (Humb. &amp; Bonpl. ex Willd.) Rothm.</t>
         </is>
       </c>
